--- a/Social charging model/social_psychological_variables.xlsx
+++ b/Social charging model/social_psychological_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E055202B-F998-493E-A789-9F9A00F7B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C12180-D6FD-4829-9BAF-35AC0F66CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
   </bookViews>
   <sheets>
     <sheet name="behavior" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>norms</t>
   </si>
@@ -121,27 +121,6 @@
     <t>spearman_rho</t>
   </si>
   <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>-0.140</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>-0.378</t>
-  </si>
-  <si>
     <t>0.028</t>
   </si>
   <si>
@@ -151,22 +130,37 @@
     <t>0.143</t>
   </si>
   <si>
-    <t>variables</t>
+    <t>variable</t>
   </si>
   <si>
     <t>b2_request_move</t>
   </si>
   <si>
-    <t>b3_notify_neighbour</t>
+    <t>b3_notify_neighbor</t>
   </si>
   <si>
-    <t>b4_charge_necessary</t>
+    <t>0.0659</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>Kendall's tau-b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,10 +206,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,19 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B020A-B8AA-4C90-A2E6-B19389FAF789}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="5" width="9.21875" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -576,7 +580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -591,10 +595,13 @@
         <v>0.875</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -609,10 +616,10 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -627,10 +634,10 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -645,7 +652,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -655,15 +662,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0717C7-A6B8-4B04-BCE8-661098347A82}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.88671875" customWidth="1"/>
+    <col min="1" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,13 +681,10 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -690,13 +695,10 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
+      <c r="C2" s="2">
+        <v>0.23100000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -707,13 +709,10 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -724,47 +723,41 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4" s="2">
+        <v>0.18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
+      <c r="C5" s="2">
+        <v>0.41799999999999998</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44500000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -773,220 +766,41 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.378</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.44500000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-0.378</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -996,10 +810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C45713-F1F8-421E-90B1-0143CEE6FADE}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,9 +821,9 @@
     <col min="1" max="1" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1023,72 +837,195 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.191</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.21</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.191</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.214</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.217</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1100,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664CA60-AA3B-47E6-A86E-C4C0CA6687C2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A12" sqref="A12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1048,7 @@
     <col min="1" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1263,6 +1200,82 @@
       </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1271,16 +1284,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC26DA5C-027D-430F-89B5-F2AD19738940}">
-  <dimension ref="A1:D289"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58A2F2-7A8C-4742-9BDA-05C4C9312E27}">
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,8 +1306,17 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1307,8 +1329,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1321,8 +1352,17 @@
       <c r="D3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -1335,8 +1375,17 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -1349,8 +1398,17 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1363,8 +1421,17 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -1377,8 +1444,17 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -1391,8 +1467,17 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -1405,8 +1490,17 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.5</v>
       </c>
@@ -1419,8 +1513,17 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1433,8 +1536,17 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1447,8 +1559,17 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1461,8 +1582,17 @@
       <c r="D13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1475,8 +1605,17 @@
       <c r="D14">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1489,8 +1628,17 @@
       <c r="D15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1503,8 +1651,17 @@
       <c r="D16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1517,8 +1674,17 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1531,8 +1697,17 @@
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1545,8 +1720,17 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1559,8 +1743,17 @@
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1573,8 +1766,17 @@
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1587,8 +1789,17 @@
       <c r="D22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
@@ -1601,8 +1812,17 @@
       <c r="D23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
@@ -1615,8 +1835,17 @@
       <c r="D24">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
@@ -1629,8 +1858,17 @@
       <c r="D25">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.5</v>
       </c>
@@ -1643,8 +1881,17 @@
       <c r="D26">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -1657,8 +1904,17 @@
       <c r="D27">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1671,8 +1927,17 @@
       <c r="D28">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1685,8 +1950,17 @@
       <c r="D29">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1699,8 +1973,17 @@
       <c r="D30">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1713,8 +1996,17 @@
       <c r="D31">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1727,8 +2019,17 @@
       <c r="D32">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1741,8 +2042,17 @@
       <c r="D33">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1755,8 +2065,17 @@
       <c r="D34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1769,8 +2088,17 @@
       <c r="D35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1783,8 +2111,17 @@
       <c r="D36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1797,8 +2134,17 @@
       <c r="D37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1811,8 +2157,17 @@
       <c r="D38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1825,8 +2180,17 @@
       <c r="D39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1839,8 +2203,17 @@
       <c r="D40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <v>4</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1853,8 +2226,17 @@
       <c r="D41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1867,8 +2249,17 @@
       <c r="D42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.5</v>
       </c>
@@ -1881,8 +2272,17 @@
       <c r="D43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.5</v>
       </c>
@@ -1895,8 +2295,17 @@
       <c r="D44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.5</v>
       </c>
@@ -1909,8 +2318,17 @@
       <c r="D45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>4</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.5</v>
       </c>
@@ -1923,8 +2341,17 @@
       <c r="D46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>4</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3.5</v>
       </c>
@@ -1937,8 +2364,17 @@
       <c r="D47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <v>4</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.5</v>
       </c>
@@ -1951,8 +2387,17 @@
       <c r="D48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <v>4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.5</v>
       </c>
@@ -1965,8 +2410,17 @@
       <c r="D49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.5</v>
       </c>
@@ -1979,8 +2433,17 @@
       <c r="D50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4</v>
+      </c>
+      <c r="G50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.5</v>
       </c>
@@ -1993,8 +2456,17 @@
       <c r="D51">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3.5</v>
       </c>
@@ -2007,8 +2479,17 @@
       <c r="D52">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3.5</v>
       </c>
@@ -2021,8 +2502,17 @@
       <c r="D53">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.5</v>
       </c>
@@ -2035,8 +2525,17 @@
       <c r="D54">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G54" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.5</v>
       </c>
@@ -2049,8 +2548,17 @@
       <c r="D55">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2063,8 +2571,17 @@
       <c r="D56">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G56" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2077,8 +2594,17 @@
       <c r="D57">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G57" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2091,8 +2617,17 @@
       <c r="D58">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G58" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -2105,8 +2640,17 @@
       <c r="D59">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2119,8 +2663,17 @@
       <c r="D60">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G60" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2133,8 +2686,17 @@
       <c r="D61">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G61" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2147,8 +2709,17 @@
       <c r="D62">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G62" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2161,8 +2732,17 @@
       <c r="D63">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G63" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -2175,8 +2755,17 @@
       <c r="D64">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G64" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2189,8 +2778,17 @@
       <c r="D65">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G65" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2203,8 +2801,17 @@
       <c r="D66">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G66" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2217,8 +2824,17 @@
       <c r="D67">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F67" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2231,8 +2847,17 @@
       <c r="D68">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G68" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2245,8 +2870,17 @@
       <c r="D69">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G69" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2259,8 +2893,17 @@
       <c r="D70">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G70" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2273,8 +2916,17 @@
       <c r="D71">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F71" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G71" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -2287,8 +2939,17 @@
       <c r="D72">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2301,8 +2962,17 @@
       <c r="D73">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F73" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G73" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -2315,8 +2985,17 @@
       <c r="D74">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G74" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -2329,8 +3008,17 @@
       <c r="D75">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F75" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2343,8 +3031,17 @@
       <c r="D76">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F76" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G76" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2357,8 +3054,17 @@
       <c r="D77">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G77" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -2371,8 +3077,17 @@
       <c r="D78">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2385,8 +3100,17 @@
       <c r="D79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="4">
+        <v>5</v>
+      </c>
+      <c r="F79" s="4">
+        <v>5</v>
+      </c>
+      <c r="G79" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2399,8 +3123,17 @@
       <c r="D80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="4">
+        <v>5</v>
+      </c>
+      <c r="F80" s="4">
+        <v>5</v>
+      </c>
+      <c r="G80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2413,8 +3146,17 @@
       <c r="D81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="4">
+        <v>5</v>
+      </c>
+      <c r="F81" s="4">
+        <v>5</v>
+      </c>
+      <c r="G81" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2427,8 +3169,17 @@
       <c r="D82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="4">
+        <v>5</v>
+      </c>
+      <c r="F82" s="4">
+        <v>5</v>
+      </c>
+      <c r="G82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2441,8 +3192,17 @@
       <c r="D83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="4">
+        <v>5</v>
+      </c>
+      <c r="F83" s="4">
+        <v>5</v>
+      </c>
+      <c r="G83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2455,8 +3215,17 @@
       <c r="D84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="4">
+        <v>5</v>
+      </c>
+      <c r="F84" s="4">
+        <v>5</v>
+      </c>
+      <c r="G84" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2469,8 +3238,17 @@
       <c r="D85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="4">
+        <v>5</v>
+      </c>
+      <c r="G85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2483,8 +3261,17 @@
       <c r="D86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="4">
+        <v>5</v>
+      </c>
+      <c r="F86" s="4">
+        <v>5</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2497,8 +3284,17 @@
       <c r="D87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="4">
+        <v>5</v>
+      </c>
+      <c r="F87" s="4">
+        <v>5</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2511,8 +3307,17 @@
       <c r="D88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="4">
+        <v>5</v>
+      </c>
+      <c r="F88" s="4">
+        <v>5</v>
+      </c>
+      <c r="G88" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2525,8 +3330,17 @@
       <c r="D89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="4">
+        <v>5</v>
+      </c>
+      <c r="F89" s="4">
+        <v>5</v>
+      </c>
+      <c r="G89" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4.5</v>
       </c>
@@ -2539,8 +3353,17 @@
       <c r="D90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="4">
+        <v>5</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4.5</v>
       </c>
@@ -2553,8 +3376,17 @@
       <c r="D91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="4">
+        <v>5</v>
+      </c>
+      <c r="F91" s="4">
+        <v>5</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4.5</v>
       </c>
@@ -2567,8 +3399,17 @@
       <c r="D92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="4">
+        <v>5</v>
+      </c>
+      <c r="F92" s="4">
+        <v>5</v>
+      </c>
+      <c r="G92" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.5</v>
       </c>
@@ -2581,8 +3422,17 @@
       <c r="D93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="4">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4">
+        <v>5</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4.5</v>
       </c>
@@ -2595,8 +3445,17 @@
       <c r="D94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="4">
+        <v>5</v>
+      </c>
+      <c r="F94" s="4">
+        <v>5</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4.5</v>
       </c>
@@ -2609,8 +3468,17 @@
       <c r="D95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="4">
+        <v>5</v>
+      </c>
+      <c r="F95" s="4">
+        <v>5</v>
+      </c>
+      <c r="G95" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4.5</v>
       </c>
@@ -2623,8 +3491,17 @@
       <c r="D96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="4">
+        <v>5</v>
+      </c>
+      <c r="F96" s="4">
+        <v>5</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4.5</v>
       </c>
@@ -2637,8 +3514,17 @@
       <c r="D97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="4">
+        <v>5</v>
+      </c>
+      <c r="F97" s="4">
+        <v>5</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.5</v>
       </c>
@@ -2651,8 +3537,17 @@
       <c r="D98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="4">
+        <v>5</v>
+      </c>
+      <c r="F98" s="4">
+        <v>5</v>
+      </c>
+      <c r="G98" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4.5</v>
       </c>
@@ -2665,8 +3560,17 @@
       <c r="D99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="4">
+        <v>5</v>
+      </c>
+      <c r="F99" s="4">
+        <v>5</v>
+      </c>
+      <c r="G99" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4.5</v>
       </c>
@@ -2679,8 +3583,17 @@
       <c r="D100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="4">
+        <v>5</v>
+      </c>
+      <c r="F100" s="4">
+        <v>5</v>
+      </c>
+      <c r="G100" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4.5</v>
       </c>
@@ -2693,8 +3606,17 @@
       <c r="D101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="4">
+        <v>5</v>
+      </c>
+      <c r="F101" s="4">
+        <v>5</v>
+      </c>
+      <c r="G101" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4.5</v>
       </c>
@@ -2707,8 +3629,17 @@
       <c r="D102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="4">
+        <v>5</v>
+      </c>
+      <c r="F102" s="4">
+        <v>5</v>
+      </c>
+      <c r="G102" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4.5</v>
       </c>
@@ -2721,8 +3652,17 @@
       <c r="D103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="4">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4">
+        <v>5</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4.5</v>
       </c>
@@ -2735,8 +3675,17 @@
       <c r="D104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="4">
+        <v>5</v>
+      </c>
+      <c r="F104" s="4">
+        <v>5</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4.5</v>
       </c>
@@ -2749,8 +3698,17 @@
       <c r="D105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="4">
+        <v>5</v>
+      </c>
+      <c r="F105" s="4">
+        <v>5</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2763,8 +3721,17 @@
       <c r="D106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="4">
+        <v>5</v>
+      </c>
+      <c r="F106" s="4">
+        <v>5</v>
+      </c>
+      <c r="G106" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2777,8 +3744,17 @@
       <c r="D107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="4">
+        <v>5</v>
+      </c>
+      <c r="F107" s="4">
+        <v>5</v>
+      </c>
+      <c r="G107" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2791,8 +3767,17 @@
       <c r="D108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="4">
+        <v>5</v>
+      </c>
+      <c r="F108" s="4">
+        <v>5</v>
+      </c>
+      <c r="G108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2805,8 +3790,17 @@
       <c r="D109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="4">
+        <v>5</v>
+      </c>
+      <c r="F109" s="4">
+        <v>5</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2819,8 +3813,17 @@
       <c r="D110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="4">
+        <v>5</v>
+      </c>
+      <c r="F110" s="4">
+        <v>5</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2833,8 +3836,17 @@
       <c r="D111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="4">
+        <v>5</v>
+      </c>
+      <c r="F111" s="4">
+        <v>5</v>
+      </c>
+      <c r="G111" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2847,8 +3859,17 @@
       <c r="D112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="4">
+        <v>5</v>
+      </c>
+      <c r="F112" s="4">
+        <v>5</v>
+      </c>
+      <c r="G112" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2861,8 +3882,17 @@
       <c r="D113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="4">
+        <v>5</v>
+      </c>
+      <c r="F113" s="4">
+        <v>5</v>
+      </c>
+      <c r="G113" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2875,8 +3905,17 @@
       <c r="D114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="4">
+        <v>5</v>
+      </c>
+      <c r="F114" s="4">
+        <v>5</v>
+      </c>
+      <c r="G114" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2889,8 +3928,17 @@
       <c r="D115">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="4">
+        <v>5</v>
+      </c>
+      <c r="F115" s="4">
+        <v>5</v>
+      </c>
+      <c r="G115" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2903,8 +3951,17 @@
       <c r="D116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="4">
+        <v>5</v>
+      </c>
+      <c r="F116" s="4">
+        <v>5</v>
+      </c>
+      <c r="G116" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2917,8 +3974,17 @@
       <c r="D117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="4">
+        <v>5</v>
+      </c>
+      <c r="F117" s="4">
+        <v>5</v>
+      </c>
+      <c r="G117" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2931,8 +3997,17 @@
       <c r="D118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="4">
+        <v>5</v>
+      </c>
+      <c r="F118" s="4">
+        <v>5</v>
+      </c>
+      <c r="G118" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2945,8 +4020,17 @@
       <c r="D119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="4">
+        <v>5</v>
+      </c>
+      <c r="F119" s="4">
+        <v>5</v>
+      </c>
+      <c r="G119" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2959,8 +4043,17 @@
       <c r="D120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="4">
+        <v>5</v>
+      </c>
+      <c r="F120" s="4">
+        <v>5</v>
+      </c>
+      <c r="G120" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2973,8 +4066,17 @@
       <c r="D121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="4">
+        <v>5</v>
+      </c>
+      <c r="F121" s="4">
+        <v>5</v>
+      </c>
+      <c r="G121" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2987,8 +4089,17 @@
       <c r="D122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="4">
+        <v>5</v>
+      </c>
+      <c r="F122" s="4">
+        <v>5</v>
+      </c>
+      <c r="G122" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3001,8 +4112,17 @@
       <c r="D123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="4">
+        <v>5</v>
+      </c>
+      <c r="F123" s="4">
+        <v>5</v>
+      </c>
+      <c r="G123" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3015,8 +4135,17 @@
       <c r="D124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="4">
+        <v>5</v>
+      </c>
+      <c r="F124" s="4">
+        <v>5</v>
+      </c>
+      <c r="G124" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3029,8 +4158,17 @@
       <c r="D125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="4">
+        <v>5</v>
+      </c>
+      <c r="F125" s="4">
+        <v>5</v>
+      </c>
+      <c r="G125" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3043,8 +4181,17 @@
       <c r="D126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="4">
+        <v>5</v>
+      </c>
+      <c r="F126" s="4">
+        <v>5</v>
+      </c>
+      <c r="G126" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3057,8 +4204,17 @@
       <c r="D127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" s="4">
+        <v>5</v>
+      </c>
+      <c r="F127" s="4">
+        <v>5</v>
+      </c>
+      <c r="G127" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3071,8 +4227,17 @@
       <c r="D128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" s="4">
+        <v>5</v>
+      </c>
+      <c r="F128" s="4">
+        <v>5</v>
+      </c>
+      <c r="G128" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5</v>
       </c>
@@ -3085,8 +4250,17 @@
       <c r="D129">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F129" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G129" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3099,8 +4273,17 @@
       <c r="D130">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G130" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3113,8 +4296,17 @@
       <c r="D131">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F131" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G131" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5</v>
       </c>
@@ -3127,8 +4319,17 @@
       <c r="D132">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F132" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G132" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5</v>
       </c>
@@ -3141,8 +4342,17 @@
       <c r="D133">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F133" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G133" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5</v>
       </c>
@@ -3155,8 +4365,17 @@
       <c r="D134">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F134" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G134" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
@@ -3169,8 +4388,17 @@
       <c r="D135">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F135" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G135" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5</v>
       </c>
@@ -3183,8 +4411,17 @@
       <c r="D136">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F136" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G136" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5.5</v>
       </c>
@@ -3197,8 +4434,17 @@
       <c r="D137">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F137" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5.5</v>
       </c>
@@ -3211,8 +4457,17 @@
       <c r="D138">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F138" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G138" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5.5</v>
       </c>
@@ -3225,8 +4480,17 @@
       <c r="D139">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F139" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G139" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5.5</v>
       </c>
@@ -3239,8 +4503,17 @@
       <c r="D140">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F140" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G140" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5.5</v>
       </c>
@@ -3253,8 +4526,17 @@
       <c r="D141">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F141" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5.5</v>
       </c>
@@ -3267,8 +4549,17 @@
       <c r="D142">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F142" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G142" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5.5</v>
       </c>
@@ -3281,8 +4572,17 @@
       <c r="D143">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F143" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G143" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5.5</v>
       </c>
@@ -3295,8 +4595,17 @@
       <c r="D144">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F144" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G144" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5.5</v>
       </c>
@@ -3309,8 +4618,17 @@
       <c r="D145">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F145" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G145" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5.5</v>
       </c>
@@ -3323,8 +4641,17 @@
       <c r="D146">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F146" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5.5</v>
       </c>
@@ -3337,8 +4664,17 @@
       <c r="D147">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F147" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G147" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5.5</v>
       </c>
@@ -3351,8 +4687,17 @@
       <c r="D148">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F148" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G148" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5.5</v>
       </c>
@@ -3365,8 +4710,17 @@
       <c r="D149">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F149" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G149" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5.5</v>
       </c>
@@ -3379,8 +4733,17 @@
       <c r="D150">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F150" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G150" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5.5</v>
       </c>
@@ -3393,8 +4756,17 @@
       <c r="D151">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F151" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G151" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5.5</v>
       </c>
@@ -3407,8 +4779,17 @@
       <c r="D152">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F152" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G152" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5.5</v>
       </c>
@@ -3421,8 +4802,17 @@
       <c r="D153">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F153" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G153" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5.5</v>
       </c>
@@ -3435,8 +4825,17 @@
       <c r="D154">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F154" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G154" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5.5</v>
       </c>
@@ -3449,8 +4848,17 @@
       <c r="D155">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F155" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G155" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>5.5</v>
       </c>
@@ -3463,8 +4871,17 @@
       <c r="D156">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F156" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G156" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>5.5</v>
       </c>
@@ -3477,8 +4894,17 @@
       <c r="D157">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F157" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G157" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>5.5</v>
       </c>
@@ -3491,8 +4917,17 @@
       <c r="D158">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F158" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G158" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>5.5</v>
       </c>
@@ -3505,8 +4940,17 @@
       <c r="D159">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F159" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G159" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5.5</v>
       </c>
@@ -3519,8 +4963,17 @@
       <c r="D160">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F160" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G160" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5.5</v>
       </c>
@@ -3533,8 +4986,17 @@
       <c r="D161">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F161" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G161" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5.5</v>
       </c>
@@ -3547,8 +5009,17 @@
       <c r="D162">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F162" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G162" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5.5</v>
       </c>
@@ -3561,8 +5032,17 @@
       <c r="D163">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F163" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G163" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5.5</v>
       </c>
@@ -3575,8 +5055,17 @@
       <c r="D164">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F164" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G164" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5.5</v>
       </c>
@@ -3589,8 +5078,17 @@
       <c r="D165">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F165" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G165" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5.5</v>
       </c>
@@ -3603,8 +5101,17 @@
       <c r="D166">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F166" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G166" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>5.5</v>
       </c>
@@ -3617,8 +5124,17 @@
       <c r="D167">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F167" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G167" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>5.5</v>
       </c>
@@ -3631,8 +5147,17 @@
       <c r="D168">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F168" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G168" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>5.5</v>
       </c>
@@ -3645,8 +5170,17 @@
       <c r="D169">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F169" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G169" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5.5</v>
       </c>
@@ -3659,8 +5193,17 @@
       <c r="D170">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F170" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G170" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5.5</v>
       </c>
@@ -3673,8 +5216,17 @@
       <c r="D171">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F171" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G171" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>5.5</v>
       </c>
@@ -3687,8 +5239,17 @@
       <c r="D172">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F172" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G172" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>5.5</v>
       </c>
@@ -3701,8 +5262,17 @@
       <c r="D173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F173" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G173" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5.5</v>
       </c>
@@ -3715,8 +5285,17 @@
       <c r="D174">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F174" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G174" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5.5</v>
       </c>
@@ -3729,8 +5308,17 @@
       <c r="D175">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F175" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G175" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>5.5</v>
       </c>
@@ -3743,8 +5331,17 @@
       <c r="D176">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F176" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G176" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -3757,8 +5354,17 @@
       <c r="D177">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F177" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G177" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -3771,8 +5377,17 @@
       <c r="D178">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F178" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G178" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -3785,8 +5400,17 @@
       <c r="D179">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F179" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G179" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -3799,8 +5423,17 @@
       <c r="D180">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F180" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G180" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -3813,8 +5446,17 @@
       <c r="D181">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F181" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G181" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6</v>
       </c>
@@ -3827,8 +5469,17 @@
       <c r="D182">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F182" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G182" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -3841,8 +5492,17 @@
       <c r="D183">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F183" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G183" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6</v>
       </c>
@@ -3855,8 +5515,17 @@
       <c r="D184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="4">
+        <v>6</v>
+      </c>
+      <c r="F184" s="4">
+        <v>6</v>
+      </c>
+      <c r="G184" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6</v>
       </c>
@@ -3869,8 +5538,17 @@
       <c r="D185">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="4">
+        <v>6</v>
+      </c>
+      <c r="F185" s="4">
+        <v>6</v>
+      </c>
+      <c r="G185" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6</v>
       </c>
@@ -3883,8 +5561,17 @@
       <c r="D186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="4">
+        <v>6</v>
+      </c>
+      <c r="F186" s="4">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -3897,8 +5584,17 @@
       <c r="D187">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="4">
+        <v>6</v>
+      </c>
+      <c r="F187" s="4">
+        <v>6</v>
+      </c>
+      <c r="G187" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6</v>
       </c>
@@ -3911,8 +5607,17 @@
       <c r="D188">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="4">
+        <v>6</v>
+      </c>
+      <c r="F188" s="4">
+        <v>6</v>
+      </c>
+      <c r="G188" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -3925,8 +5630,17 @@
       <c r="D189">
         <v>6</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="4">
+        <v>6</v>
+      </c>
+      <c r="F189" s="4">
+        <v>6</v>
+      </c>
+      <c r="G189" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6</v>
       </c>
@@ -3939,8 +5653,17 @@
       <c r="D190">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" s="4">
+        <v>6</v>
+      </c>
+      <c r="F190" s="4">
+        <v>6</v>
+      </c>
+      <c r="G190" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6</v>
       </c>
@@ -3953,8 +5676,17 @@
       <c r="D191">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="4">
+        <v>6</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6</v>
+      </c>
+      <c r="G191" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6</v>
       </c>
@@ -3967,8 +5699,17 @@
       <c r="D192">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="4">
+        <v>6</v>
+      </c>
+      <c r="F192" s="4">
+        <v>6</v>
+      </c>
+      <c r="G192" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -3981,8 +5722,17 @@
       <c r="D193">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" s="4">
+        <v>6</v>
+      </c>
+      <c r="F193" s="4">
+        <v>6</v>
+      </c>
+      <c r="G193" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -3995,8 +5745,17 @@
       <c r="D194">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" s="4">
+        <v>6</v>
+      </c>
+      <c r="F194" s="4">
+        <v>6</v>
+      </c>
+      <c r="G194" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>6</v>
       </c>
@@ -4009,8 +5768,17 @@
       <c r="D195">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" s="4">
+        <v>6</v>
+      </c>
+      <c r="F195" s="4">
+        <v>6</v>
+      </c>
+      <c r="G195" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6</v>
       </c>
@@ -4023,8 +5791,17 @@
       <c r="D196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="4">
+        <v>6</v>
+      </c>
+      <c r="F196" s="4">
+        <v>6</v>
+      </c>
+      <c r="G196" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>6</v>
       </c>
@@ -4037,8 +5814,17 @@
       <c r="D197">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="4">
+        <v>6</v>
+      </c>
+      <c r="F197" s="4">
+        <v>6</v>
+      </c>
+      <c r="G197" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>6</v>
       </c>
@@ -4051,8 +5837,17 @@
       <c r="D198">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="4">
+        <v>6</v>
+      </c>
+      <c r="F198" s="4">
+        <v>6</v>
+      </c>
+      <c r="G198" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6</v>
       </c>
@@ -4065,8 +5860,17 @@
       <c r="D199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="4">
+        <v>6</v>
+      </c>
+      <c r="F199" s="4">
+        <v>6</v>
+      </c>
+      <c r="G199" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>6</v>
       </c>
@@ -4079,8 +5883,17 @@
       <c r="D200">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="4">
+        <v>6</v>
+      </c>
+      <c r="F200" s="4">
+        <v>6</v>
+      </c>
+      <c r="G200" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>6</v>
       </c>
@@ -4093,8 +5906,17 @@
       <c r="D201">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="4">
+        <v>6</v>
+      </c>
+      <c r="F201" s="4">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>6</v>
       </c>
@@ -4107,8 +5929,17 @@
       <c r="D202">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="4">
+        <v>6</v>
+      </c>
+      <c r="F202" s="4">
+        <v>6</v>
+      </c>
+      <c r="G202" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4121,8 +5952,17 @@
       <c r="D203">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="4">
+        <v>6</v>
+      </c>
+      <c r="F203" s="4">
+        <v>6</v>
+      </c>
+      <c r="G203" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>6</v>
       </c>
@@ -4135,8 +5975,17 @@
       <c r="D204">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" s="4">
+        <v>6</v>
+      </c>
+      <c r="F204" s="4">
+        <v>6</v>
+      </c>
+      <c r="G204" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>6</v>
       </c>
@@ -4149,8 +5998,17 @@
       <c r="D205">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" s="4">
+        <v>6</v>
+      </c>
+      <c r="F205" s="4">
+        <v>6</v>
+      </c>
+      <c r="G205" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>6</v>
       </c>
@@ -4163,8 +6021,17 @@
       <c r="D206">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" s="4">
+        <v>6</v>
+      </c>
+      <c r="F206" s="4">
+        <v>6</v>
+      </c>
+      <c r="G206" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>6</v>
       </c>
@@ -4177,8 +6044,17 @@
       <c r="D207">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" s="4">
+        <v>6</v>
+      </c>
+      <c r="F207" s="4">
+        <v>6</v>
+      </c>
+      <c r="G207" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>6</v>
       </c>
@@ -4191,8 +6067,17 @@
       <c r="D208">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="4">
+        <v>6</v>
+      </c>
+      <c r="F208" s="4">
+        <v>6</v>
+      </c>
+      <c r="G208" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>6</v>
       </c>
@@ -4205,8 +6090,17 @@
       <c r="D209">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="4">
+        <v>6</v>
+      </c>
+      <c r="F209" s="4">
+        <v>6</v>
+      </c>
+      <c r="G209" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>6</v>
       </c>
@@ -4219,8 +6113,17 @@
       <c r="D210">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" s="4">
+        <v>6</v>
+      </c>
+      <c r="F210" s="4">
+        <v>6</v>
+      </c>
+      <c r="G210" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>6</v>
       </c>
@@ -4233,8 +6136,17 @@
       <c r="D211">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" s="4">
+        <v>6</v>
+      </c>
+      <c r="F211" s="4">
+        <v>6</v>
+      </c>
+      <c r="G211" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>6</v>
       </c>
@@ -4247,8 +6159,17 @@
       <c r="D212">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="4">
+        <v>6</v>
+      </c>
+      <c r="F212" s="4">
+        <v>6</v>
+      </c>
+      <c r="G212" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>6</v>
       </c>
@@ -4261,8 +6182,17 @@
       <c r="D213">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" s="4">
+        <v>6</v>
+      </c>
+      <c r="F213" s="4">
+        <v>6</v>
+      </c>
+      <c r="G213" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>6</v>
       </c>
@@ -4275,8 +6205,17 @@
       <c r="D214">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" s="4">
+        <v>6</v>
+      </c>
+      <c r="F214" s="4">
+        <v>6</v>
+      </c>
+      <c r="G214" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>6</v>
       </c>
@@ -4289,8 +6228,17 @@
       <c r="D215">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" s="4">
+        <v>6</v>
+      </c>
+      <c r="F215" s="4">
+        <v>6</v>
+      </c>
+      <c r="G215" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>6</v>
       </c>
@@ -4303,8 +6251,17 @@
       <c r="D216">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216" s="4">
+        <v>6</v>
+      </c>
+      <c r="F216" s="4">
+        <v>6</v>
+      </c>
+      <c r="G216" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>6</v>
       </c>
@@ -4317,8 +6274,17 @@
       <c r="D217">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" s="4">
+        <v>6</v>
+      </c>
+      <c r="F217" s="4">
+        <v>6</v>
+      </c>
+      <c r="G217" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>6</v>
       </c>
@@ -4331,8 +6297,17 @@
       <c r="D218">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" s="4">
+        <v>6</v>
+      </c>
+      <c r="F218" s="4">
+        <v>6</v>
+      </c>
+      <c r="G218" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>6</v>
       </c>
@@ -4345,8 +6320,17 @@
       <c r="D219">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" s="4">
+        <v>6</v>
+      </c>
+      <c r="F219" s="4">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>6</v>
       </c>
@@ -4359,8 +6343,17 @@
       <c r="D220">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" s="4">
+        <v>6</v>
+      </c>
+      <c r="F220" s="4">
+        <v>6</v>
+      </c>
+      <c r="G220" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>6</v>
       </c>
@@ -4373,8 +6366,17 @@
       <c r="D221">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" s="4">
+        <v>6</v>
+      </c>
+      <c r="F221" s="4">
+        <v>6</v>
+      </c>
+      <c r="G221" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>6</v>
       </c>
@@ -4387,8 +6389,17 @@
       <c r="D222">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222" s="4">
+        <v>6</v>
+      </c>
+      <c r="F222" s="4">
+        <v>6</v>
+      </c>
+      <c r="G222" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -4401,8 +6412,17 @@
       <c r="D223">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223" s="4">
+        <v>6</v>
+      </c>
+      <c r="F223" s="4">
+        <v>6</v>
+      </c>
+      <c r="G223" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -4415,8 +6435,17 @@
       <c r="D224">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" s="4">
+        <v>6</v>
+      </c>
+      <c r="F224" s="4">
+        <v>6</v>
+      </c>
+      <c r="G224" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6</v>
       </c>
@@ -4429,8 +6458,17 @@
       <c r="D225">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" s="4">
+        <v>6</v>
+      </c>
+      <c r="F225" s="4">
+        <v>6</v>
+      </c>
+      <c r="G225" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -4443,8 +6481,17 @@
       <c r="D226">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226" s="4">
+        <v>6</v>
+      </c>
+      <c r="F226" s="4">
+        <v>6</v>
+      </c>
+      <c r="G226" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -4457,8 +6504,17 @@
       <c r="D227">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227" s="4">
+        <v>6</v>
+      </c>
+      <c r="F227" s="4">
+        <v>6</v>
+      </c>
+      <c r="G227" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6</v>
       </c>
@@ -4471,8 +6527,17 @@
       <c r="D228">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228" s="4">
+        <v>6</v>
+      </c>
+      <c r="F228" s="4">
+        <v>6</v>
+      </c>
+      <c r="G228" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6</v>
       </c>
@@ -4485,8 +6550,17 @@
       <c r="D229">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229" s="4">
+        <v>6</v>
+      </c>
+      <c r="F229" s="4">
+        <v>6</v>
+      </c>
+      <c r="G229" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6</v>
       </c>
@@ -4499,8 +6573,17 @@
       <c r="D230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230" s="4">
+        <v>6</v>
+      </c>
+      <c r="F230" s="4">
+        <v>6</v>
+      </c>
+      <c r="G230" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -4513,8 +6596,17 @@
       <c r="D231">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231" s="4">
+        <v>6</v>
+      </c>
+      <c r="F231" s="4">
+        <v>6</v>
+      </c>
+      <c r="G231" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>6</v>
       </c>
@@ -4527,8 +6619,17 @@
       <c r="D232">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" s="4">
+        <v>6</v>
+      </c>
+      <c r="F232" s="4">
+        <v>6</v>
+      </c>
+      <c r="G232" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>6</v>
       </c>
@@ -4541,8 +6642,17 @@
       <c r="D233">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233" s="4">
+        <v>6</v>
+      </c>
+      <c r="F233" s="4">
+        <v>6</v>
+      </c>
+      <c r="G233" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>6</v>
       </c>
@@ -4555,8 +6665,17 @@
       <c r="D234">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234" s="4">
+        <v>6</v>
+      </c>
+      <c r="F234" s="4">
+        <v>6</v>
+      </c>
+      <c r="G234" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>6</v>
       </c>
@@ -4569,8 +6688,17 @@
       <c r="D235">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235" s="4">
+        <v>6</v>
+      </c>
+      <c r="F235" s="4">
+        <v>6</v>
+      </c>
+      <c r="G235" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>6</v>
       </c>
@@ -4583,8 +6711,17 @@
       <c r="D236">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236" s="4">
+        <v>6</v>
+      </c>
+      <c r="F236" s="4">
+        <v>6</v>
+      </c>
+      <c r="G236" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>6</v>
       </c>
@@ -4597,8 +6734,17 @@
       <c r="D237">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237" s="4">
+        <v>6</v>
+      </c>
+      <c r="F237" s="4">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>6</v>
       </c>
@@ -4611,8 +6757,17 @@
       <c r="D238">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238" s="4">
+        <v>6</v>
+      </c>
+      <c r="F238" s="4">
+        <v>6</v>
+      </c>
+      <c r="G238" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>6</v>
       </c>
@@ -4625,8 +6780,17 @@
       <c r="D239">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" s="4">
+        <v>6</v>
+      </c>
+      <c r="F239" s="4">
+        <v>6</v>
+      </c>
+      <c r="G239" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>6</v>
       </c>
@@ -4639,8 +6803,17 @@
       <c r="D240">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" s="4">
+        <v>6</v>
+      </c>
+      <c r="F240" s="4">
+        <v>6</v>
+      </c>
+      <c r="G240" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>6</v>
       </c>
@@ -4653,8 +6826,17 @@
       <c r="D241">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" s="4">
+        <v>6</v>
+      </c>
+      <c r="F241" s="4">
+        <v>6</v>
+      </c>
+      <c r="G241" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>6</v>
       </c>
@@ -4667,8 +6849,17 @@
       <c r="D242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" s="4">
+        <v>6</v>
+      </c>
+      <c r="F242" s="4">
+        <v>6</v>
+      </c>
+      <c r="G242" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>6</v>
       </c>
@@ -4681,8 +6872,17 @@
       <c r="D243">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243" s="4">
+        <v>6</v>
+      </c>
+      <c r="F243" s="4">
+        <v>6</v>
+      </c>
+      <c r="G243" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>6</v>
       </c>
@@ -4695,8 +6895,17 @@
       <c r="D244">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244" s="4">
+        <v>6</v>
+      </c>
+      <c r="F244" s="4">
+        <v>6</v>
+      </c>
+      <c r="G244" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>6</v>
       </c>
@@ -4709,8 +6918,17 @@
       <c r="D245">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245" s="4">
+        <v>6</v>
+      </c>
+      <c r="F245" s="4">
+        <v>6</v>
+      </c>
+      <c r="G245" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>6</v>
       </c>
@@ -4723,8 +6941,17 @@
       <c r="D246">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246" s="4">
+        <v>6</v>
+      </c>
+      <c r="F246" s="4">
+        <v>6</v>
+      </c>
+      <c r="G246" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6</v>
       </c>
@@ -4737,8 +6964,17 @@
       <c r="D247">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247" s="4">
+        <v>6</v>
+      </c>
+      <c r="F247" s="4">
+        <v>6</v>
+      </c>
+      <c r="G247" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>6</v>
       </c>
@@ -4751,8 +6987,17 @@
       <c r="D248">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248" s="4">
+        <v>6</v>
+      </c>
+      <c r="F248" s="4">
+        <v>6</v>
+      </c>
+      <c r="G248" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>6</v>
       </c>
@@ -4765,8 +7010,17 @@
       <c r="D249">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" s="4">
+        <v>6</v>
+      </c>
+      <c r="F249" s="4">
+        <v>6</v>
+      </c>
+      <c r="G249" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>6</v>
       </c>
@@ -4779,8 +7033,17 @@
       <c r="D250">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250" s="4">
+        <v>6</v>
+      </c>
+      <c r="F250" s="4">
+        <v>6</v>
+      </c>
+      <c r="G250" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>6</v>
       </c>
@@ -4793,8 +7056,17 @@
       <c r="D251">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251" s="4">
+        <v>6</v>
+      </c>
+      <c r="F251" s="4">
+        <v>6</v>
+      </c>
+      <c r="G251" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>6</v>
       </c>
@@ -4807,8 +7079,17 @@
       <c r="D252">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252" s="4">
+        <v>6</v>
+      </c>
+      <c r="F252" s="4">
+        <v>6</v>
+      </c>
+      <c r="G252" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>6</v>
       </c>
@@ -4821,8 +7102,17 @@
       <c r="D253">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" s="4">
+        <v>6</v>
+      </c>
+      <c r="F253" s="4">
+        <v>6</v>
+      </c>
+      <c r="G253" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6.5</v>
       </c>
@@ -4835,8 +7125,17 @@
       <c r="D254">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" s="4">
+        <v>6</v>
+      </c>
+      <c r="F254" s="4">
+        <v>6</v>
+      </c>
+      <c r="G254" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>6.5</v>
       </c>
@@ -4849,8 +7148,17 @@
       <c r="D255">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F255" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G255" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>6.5</v>
       </c>
@@ -4863,8 +7171,17 @@
       <c r="D256">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F256" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G256" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>6.5</v>
       </c>
@@ -4877,8 +7194,17 @@
       <c r="D257">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F257" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G257" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>6.5</v>
       </c>
@@ -4891,8 +7217,17 @@
       <c r="D258">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F258" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G258" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6.5</v>
       </c>
@@ -4905,8 +7240,17 @@
       <c r="D259">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F259" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G259" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>6.5</v>
       </c>
@@ -4919,8 +7263,17 @@
       <c r="D260">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F260" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G260" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>6.5</v>
       </c>
@@ -4933,8 +7286,17 @@
       <c r="D261">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F261" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G261" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6.5</v>
       </c>
@@ -4947,8 +7309,17 @@
       <c r="D262">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F262" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G262" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>6.5</v>
       </c>
@@ -4961,8 +7332,17 @@
       <c r="D263">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F263" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G263" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>6.5</v>
       </c>
@@ -4975,8 +7355,17 @@
       <c r="D264">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F264" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G264" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>6.5</v>
       </c>
@@ -4989,8 +7378,17 @@
       <c r="D265">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F265" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G265" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>6.5</v>
       </c>
@@ -5003,8 +7401,17 @@
       <c r="D266">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F266" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G266" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>6.5</v>
       </c>
@@ -5017,8 +7424,17 @@
       <c r="D267">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F267" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G267" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>6.5</v>
       </c>
@@ -5031,8 +7447,17 @@
       <c r="D268">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F268" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G268" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>6.5</v>
       </c>
@@ -5045,8 +7470,17 @@
       <c r="D269">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F269" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G269" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>7</v>
       </c>
@@ -5059,8 +7493,17 @@
       <c r="D270">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F270" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G270" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>7</v>
       </c>
@@ -5073,8 +7516,17 @@
       <c r="D271">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F271" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G271" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>7</v>
       </c>
@@ -5087,8 +7539,17 @@
       <c r="D272">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F272" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G272" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>7</v>
       </c>
@@ -5101,8 +7562,17 @@
       <c r="D273">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E273" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F273" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G273" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>7</v>
       </c>
@@ -5115,8 +7585,17 @@
       <c r="D274">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F274" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G274" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>7</v>
       </c>
@@ -5129,8 +7608,17 @@
       <c r="D275">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F275" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G275" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>7</v>
       </c>
@@ -5143,8 +7631,17 @@
       <c r="D276">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E276" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F276" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G276" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>7</v>
       </c>
@@ -5157,8 +7654,17 @@
       <c r="D277">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F277" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G277" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>7</v>
       </c>
@@ -5171,8 +7677,17 @@
       <c r="D278">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F278" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G278" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>7</v>
       </c>
@@ -5185,8 +7700,17 @@
       <c r="D279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" s="4">
+        <v>7</v>
+      </c>
+      <c r="F279" s="4">
+        <v>7</v>
+      </c>
+      <c r="G279" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>7</v>
       </c>
@@ -5199,8 +7723,17 @@
       <c r="D280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280" s="4">
+        <v>7</v>
+      </c>
+      <c r="F280" s="4">
+        <v>7</v>
+      </c>
+      <c r="G280" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>7</v>
       </c>
@@ -5213,8 +7746,17 @@
       <c r="D281">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E281" s="4">
+        <v>7</v>
+      </c>
+      <c r="F281" s="4">
+        <v>7</v>
+      </c>
+      <c r="G281" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>7</v>
       </c>
@@ -5227,8 +7769,17 @@
       <c r="D282">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282" s="4">
+        <v>7</v>
+      </c>
+      <c r="F282" s="4">
+        <v>7</v>
+      </c>
+      <c r="G282" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>7</v>
       </c>
@@ -5241,8 +7792,17 @@
       <c r="D283">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283" s="4">
+        <v>7</v>
+      </c>
+      <c r="F283" s="4">
+        <v>7</v>
+      </c>
+      <c r="G283" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>7</v>
       </c>
@@ -5255,8 +7815,17 @@
       <c r="D284">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284" s="4">
+        <v>7</v>
+      </c>
+      <c r="F284" s="4">
+        <v>7</v>
+      </c>
+      <c r="G284" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>7</v>
       </c>
@@ -5269,8 +7838,17 @@
       <c r="D285">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285" s="4">
+        <v>7</v>
+      </c>
+      <c r="F285" s="4">
+        <v>7</v>
+      </c>
+      <c r="G285" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>7</v>
       </c>
@@ -5283,8 +7861,17 @@
       <c r="D286">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286" s="4">
+        <v>7</v>
+      </c>
+      <c r="F286" s="4">
+        <v>7</v>
+      </c>
+      <c r="G286" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>7</v>
       </c>
@@ -5297,8 +7884,17 @@
       <c r="D287">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287" s="4">
+        <v>7</v>
+      </c>
+      <c r="F287" s="4">
+        <v>7</v>
+      </c>
+      <c r="G287" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>7</v>
       </c>
@@ -5311,8 +7907,17 @@
       <c r="D288">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288" s="4">
+        <v>7</v>
+      </c>
+      <c r="F288" s="4">
+        <v>7</v>
+      </c>
+      <c r="G288" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>7</v>
       </c>
@@ -5323,6 +7928,15 @@
         <v>7</v>
       </c>
       <c r="D289">
+        <v>7</v>
+      </c>
+      <c r="E289" s="4">
+        <v>7</v>
+      </c>
+      <c r="F289" s="4">
+        <v>7</v>
+      </c>
+      <c r="G289" s="4">
         <v>7</v>
       </c>
     </row>
@@ -5336,7 +7950,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6069,6 +8683,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="52e7cb48-9dbe-449d-a08d-73f78dde171e" xsi:nil="true"/>
@@ -6078,15 +8701,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6357,20 +8971,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54EB9CB9-2607-45A4-BDA1-92F5872EA69C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="52e7cb48-9dbe-449d-a08d-73f78dde171e"/>
     <ds:schemaRef ds:uri="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Social charging model/social_psychological_variables.xlsx
+++ b/Social charging model/social_psychological_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C12180-D6FD-4829-9BAF-35AC0F66CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB25B4-5F42-4A58-AF27-94D9AC67A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
   </bookViews>
@@ -23,6 +23,16 @@
     <sheet name="frequency_table_rc" sheetId="5" r:id="rId8"/>
     <sheet name="frequency_table_pci" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">frequency_list!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">frequency_list!$E$2:$E$289</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">frequency_list!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">frequency_list!$E$2:$E$289</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">frequency_list!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">frequency_list!$E$2:$E$289</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">frequency_list!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">frequency_list!$F$2:$F$289</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -232,6 +242,1343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C1FAFA78-2FFA-4E56-803A-57A73F3DB77C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>b1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{EBF0D47C-0265-4133-B695-9EC67596EC45}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>b2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7B27CC-1D8E-BC4E-AA22-247B4CCF83A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6267450" y="1664017"/>
+              <a:ext cx="4572000" cy="2739390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-NL" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91574AEF-C32B-DECE-4D7A-96D8160DEF8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11049000" y="1664017"/>
+              <a:ext cx="4572000" cy="2739390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-NL" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,15 +2632,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58A2F2-7A8C-4742-9BDA-05C4C9312E27}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G289"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +2663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1339,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1353,16 +2700,16 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -1376,16 +2723,28 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(E:E)</f>
+        <v>3.5208333333333335</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(F:F)</f>
+        <v>2.4652777777777777</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(G:G)</f>
+        <v>2.4652777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -1399,16 +2758,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1422,16 +2781,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -1445,16 +2804,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -1468,16 +2827,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -1491,16 +2850,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.5</v>
       </c>
@@ -1514,16 +2873,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1537,16 +2896,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1560,16 +2919,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1583,16 +2942,16 @@
         <v>2.5</v>
       </c>
       <c r="E13" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1606,16 +2965,16 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1629,16 +2988,16 @@
         <v>2.5</v>
       </c>
       <c r="E15" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1652,13 +3011,13 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,13 +3057,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1721,13 +3080,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1744,13 +3103,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1767,13 +3126,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1790,13 +3149,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1813,13 +3172,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1836,13 +3195,13 @@
         <v>3.5</v>
       </c>
       <c r="E24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1859,13 +3218,13 @@
         <v>3.5</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,13 +3241,13 @@
         <v>3.5</v>
       </c>
       <c r="E26" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1905,13 +3264,13 @@
         <v>3.5</v>
       </c>
       <c r="E27" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1928,13 +3287,13 @@
         <v>3.5</v>
       </c>
       <c r="E28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1951,13 +3310,13 @@
         <v>3.5</v>
       </c>
       <c r="E29" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1974,13 +3333,13 @@
         <v>3.5</v>
       </c>
       <c r="E30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1997,13 +3356,13 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2020,13 +3379,13 @@
         <v>3.5</v>
       </c>
       <c r="E32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2043,13 +3402,13 @@
         <v>3.5</v>
       </c>
       <c r="E33" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2066,13 +3425,13 @@
         <v>4</v>
       </c>
       <c r="E34" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,13 +3448,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2112,13 +3471,13 @@
         <v>4</v>
       </c>
       <c r="E36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2135,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2158,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="E38" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2181,13 +3540,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2204,13 +3563,13 @@
         <v>4</v>
       </c>
       <c r="E40" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2227,13 +3586,13 @@
         <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2250,13 +3609,13 @@
         <v>4</v>
       </c>
       <c r="E42" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2273,13 +3632,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2296,13 +3655,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2319,13 +3678,13 @@
         <v>4</v>
       </c>
       <c r="E45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2342,13 +3701,13 @@
         <v>4</v>
       </c>
       <c r="E46" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2365,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2388,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2411,13 +3770,13 @@
         <v>4</v>
       </c>
       <c r="E49" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2434,13 +3793,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F50" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,13 +3816,13 @@
         <v>4.5</v>
       </c>
       <c r="E51" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F51" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2480,13 +3839,13 @@
         <v>4.5</v>
       </c>
       <c r="E52" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F52" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,13 +3862,13 @@
         <v>4.5</v>
       </c>
       <c r="E53" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F53" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2526,13 +3885,13 @@
         <v>4.5</v>
       </c>
       <c r="E54" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F54" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2549,13 +3908,13 @@
         <v>4.5</v>
       </c>
       <c r="E55" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F55" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2572,13 +3931,13 @@
         <v>4.5</v>
       </c>
       <c r="E56" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F56" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2595,13 +3954,13 @@
         <v>4.5</v>
       </c>
       <c r="E57" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F57" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2618,13 +3977,13 @@
         <v>4.5</v>
       </c>
       <c r="E58" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F58" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,13 +4000,13 @@
         <v>4.5</v>
       </c>
       <c r="E59" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F59" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2664,13 +4023,13 @@
         <v>4.5</v>
       </c>
       <c r="E60" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F60" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2687,13 +4046,13 @@
         <v>4.5</v>
       </c>
       <c r="E61" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F61" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G61" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2710,13 +4069,13 @@
         <v>4.5</v>
       </c>
       <c r="E62" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F62" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2733,13 +4092,13 @@
         <v>4.5</v>
       </c>
       <c r="E63" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2756,13 +4115,13 @@
         <v>4.5</v>
       </c>
       <c r="E64" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F64" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2779,13 +4138,13 @@
         <v>4.5</v>
       </c>
       <c r="E65" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F65" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2802,13 +4161,13 @@
         <v>4.5</v>
       </c>
       <c r="E66" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F66" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2825,13 +4184,13 @@
         <v>4.5</v>
       </c>
       <c r="E67" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F67" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2848,13 +4207,13 @@
         <v>4.5</v>
       </c>
       <c r="E68" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F68" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2871,13 +4230,13 @@
         <v>4.5</v>
       </c>
       <c r="E69" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F69" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2894,13 +4253,13 @@
         <v>4.5</v>
       </c>
       <c r="E70" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F70" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2917,13 +4276,13 @@
         <v>4.5</v>
       </c>
       <c r="E71" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F71" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2940,13 +4299,13 @@
         <v>4.5</v>
       </c>
       <c r="E72" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F72" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2963,13 +4322,13 @@
         <v>4.5</v>
       </c>
       <c r="E73" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F73" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2986,13 +4345,13 @@
         <v>4.5</v>
       </c>
       <c r="E74" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F74" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G74" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3009,13 +4368,13 @@
         <v>4.5</v>
       </c>
       <c r="E75" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F75" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3032,13 +4391,13 @@
         <v>4.5</v>
       </c>
       <c r="E76" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F76" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G76" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3055,13 +4414,13 @@
         <v>4.5</v>
       </c>
       <c r="E77" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F77" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3078,13 +4437,13 @@
         <v>4.5</v>
       </c>
       <c r="E78" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G78" s="4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3101,13 +4460,13 @@
         <v>5</v>
       </c>
       <c r="E79" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F79" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3124,13 +4483,13 @@
         <v>5</v>
       </c>
       <c r="E80" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F80" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3147,13 +4506,13 @@
         <v>5</v>
       </c>
       <c r="E81" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F81" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3170,13 +4529,13 @@
         <v>5</v>
       </c>
       <c r="E82" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G82" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3193,13 +4552,13 @@
         <v>5</v>
       </c>
       <c r="E83" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F83" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3216,13 +4575,13 @@
         <v>5</v>
       </c>
       <c r="E84" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G84" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3239,13 +4598,13 @@
         <v>5</v>
       </c>
       <c r="E85" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G85" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3262,13 +4621,13 @@
         <v>5</v>
       </c>
       <c r="E86" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F86" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G86" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3285,13 +4644,13 @@
         <v>5</v>
       </c>
       <c r="E87" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G87" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3308,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="E88" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F88" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G88" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3331,13 +4690,13 @@
         <v>5</v>
       </c>
       <c r="E89" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F89" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G89" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3354,13 +4713,13 @@
         <v>5</v>
       </c>
       <c r="E90" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F90" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G90" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3377,13 +4736,13 @@
         <v>5</v>
       </c>
       <c r="E91" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G91" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3400,13 +4759,13 @@
         <v>5</v>
       </c>
       <c r="E92" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F92" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G92" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3423,13 +4782,13 @@
         <v>5</v>
       </c>
       <c r="E93" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G93" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3446,13 +4805,13 @@
         <v>5</v>
       </c>
       <c r="E94" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F94" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G94" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3469,13 +4828,13 @@
         <v>5</v>
       </c>
       <c r="E95" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F95" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G95" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3492,13 +4851,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F96" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G96" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3515,13 +4874,13 @@
         <v>5</v>
       </c>
       <c r="E97" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G97" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3538,13 +4897,13 @@
         <v>5</v>
       </c>
       <c r="E98" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G98" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3561,13 +4920,13 @@
         <v>5</v>
       </c>
       <c r="E99" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F99" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G99" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3584,13 +4943,13 @@
         <v>5</v>
       </c>
       <c r="E100" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G100" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3607,13 +4966,13 @@
         <v>5</v>
       </c>
       <c r="E101" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F101" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G101" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3630,13 +4989,13 @@
         <v>5</v>
       </c>
       <c r="E102" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F102" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G102" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3653,13 +5012,13 @@
         <v>5</v>
       </c>
       <c r="E103" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F103" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G103" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3676,13 +5035,13 @@
         <v>5</v>
       </c>
       <c r="E104" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F104" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G104" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3699,13 +5058,13 @@
         <v>5</v>
       </c>
       <c r="E105" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F105" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G105" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3722,13 +5081,13 @@
         <v>5</v>
       </c>
       <c r="E106" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F106" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G106" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3745,13 +5104,13 @@
         <v>5</v>
       </c>
       <c r="E107" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F107" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G107" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3768,13 +5127,13 @@
         <v>5</v>
       </c>
       <c r="E108" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F108" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G108" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3791,13 +5150,13 @@
         <v>5</v>
       </c>
       <c r="E109" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F109" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G109" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3814,13 +5173,13 @@
         <v>5</v>
       </c>
       <c r="E110" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F110" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G110" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3837,13 +5196,13 @@
         <v>5</v>
       </c>
       <c r="E111" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F111" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G111" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3860,13 +5219,13 @@
         <v>5</v>
       </c>
       <c r="E112" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F112" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G112" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3883,13 +5242,13 @@
         <v>5</v>
       </c>
       <c r="E113" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F113" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G113" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3906,13 +5265,13 @@
         <v>5</v>
       </c>
       <c r="E114" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F114" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G114" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3929,13 +5288,13 @@
         <v>5</v>
       </c>
       <c r="E115" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F115" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G115" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3952,13 +5311,13 @@
         <v>5</v>
       </c>
       <c r="E116" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F116" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G116" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3975,13 +5334,13 @@
         <v>5</v>
       </c>
       <c r="E117" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F117" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G117" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3998,13 +5357,13 @@
         <v>5</v>
       </c>
       <c r="E118" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F118" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G118" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4021,13 +5380,13 @@
         <v>5</v>
       </c>
       <c r="E119" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F119" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G119" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4044,13 +5403,13 @@
         <v>5</v>
       </c>
       <c r="E120" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F120" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G120" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4067,13 +5426,13 @@
         <v>5</v>
       </c>
       <c r="E121" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F121" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G121" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4090,13 +5449,13 @@
         <v>5</v>
       </c>
       <c r="E122" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F122" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G122" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4113,13 +5472,13 @@
         <v>5</v>
       </c>
       <c r="E123" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F123" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G123" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4136,13 +5495,13 @@
         <v>5</v>
       </c>
       <c r="E124" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F124" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G124" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4159,13 +5518,13 @@
         <v>5</v>
       </c>
       <c r="E125" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F125" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G125" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4182,13 +5541,13 @@
         <v>5</v>
       </c>
       <c r="E126" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F126" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G126" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4205,13 +5564,13 @@
         <v>5</v>
       </c>
       <c r="E127" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F127" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G127" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4228,13 +5587,13 @@
         <v>5</v>
       </c>
       <c r="E128" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F128" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G128" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4251,13 +5610,13 @@
         <v>5.5</v>
       </c>
       <c r="E129" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F129" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G129" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4274,13 +5633,13 @@
         <v>5.5</v>
       </c>
       <c r="E130" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F130" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G130" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4297,13 +5656,13 @@
         <v>5.5</v>
       </c>
       <c r="E131" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F131" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G131" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4320,13 +5679,13 @@
         <v>5.5</v>
       </c>
       <c r="E132" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F132" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G132" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4343,13 +5702,13 @@
         <v>5.5</v>
       </c>
       <c r="E133" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F133" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G133" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4366,13 +5725,13 @@
         <v>5.5</v>
       </c>
       <c r="E134" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F134" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G134" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4389,13 +5748,13 @@
         <v>5.5</v>
       </c>
       <c r="E135" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F135" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G135" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4412,13 +5771,13 @@
         <v>5.5</v>
       </c>
       <c r="E136" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F136" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G136" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4435,13 +5794,13 @@
         <v>5.5</v>
       </c>
       <c r="E137" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F137" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G137" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4458,13 +5817,13 @@
         <v>5.5</v>
       </c>
       <c r="E138" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F138" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G138" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4481,13 +5840,13 @@
         <v>5.5</v>
       </c>
       <c r="E139" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F139" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G139" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4504,13 +5863,13 @@
         <v>5.5</v>
       </c>
       <c r="E140" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F140" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G140" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4527,13 +5886,13 @@
         <v>5.5</v>
       </c>
       <c r="E141" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F141" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G141" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4550,13 +5909,13 @@
         <v>5.5</v>
       </c>
       <c r="E142" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F142" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G142" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4573,13 +5932,13 @@
         <v>5.5</v>
       </c>
       <c r="E143" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F143" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G143" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4596,13 +5955,13 @@
         <v>5.5</v>
       </c>
       <c r="E144" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F144" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G144" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4619,13 +5978,13 @@
         <v>5.5</v>
       </c>
       <c r="E145" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F145" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G145" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4642,13 +6001,13 @@
         <v>5.5</v>
       </c>
       <c r="E146" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F146" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G146" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4665,13 +6024,13 @@
         <v>5.5</v>
       </c>
       <c r="E147" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F147" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G147" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4688,13 +6047,13 @@
         <v>5.5</v>
       </c>
       <c r="E148" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F148" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G148" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4711,13 +6070,13 @@
         <v>5.5</v>
       </c>
       <c r="E149" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F149" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G149" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4734,13 +6093,13 @@
         <v>5.5</v>
       </c>
       <c r="E150" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F150" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G150" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4757,13 +6116,13 @@
         <v>5.5</v>
       </c>
       <c r="E151" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F151" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G151" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4780,13 +6139,13 @@
         <v>5.5</v>
       </c>
       <c r="E152" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F152" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G152" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4803,13 +6162,13 @@
         <v>5.5</v>
       </c>
       <c r="E153" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F153" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G153" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4826,13 +6185,13 @@
         <v>5.5</v>
       </c>
       <c r="E154" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F154" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G154" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4849,13 +6208,13 @@
         <v>5.5</v>
       </c>
       <c r="E155" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F155" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G155" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4872,13 +6231,13 @@
         <v>5.5</v>
       </c>
       <c r="E156" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F156" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G156" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4895,13 +6254,13 @@
         <v>5.5</v>
       </c>
       <c r="E157" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F157" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G157" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4918,13 +6277,13 @@
         <v>5.5</v>
       </c>
       <c r="E158" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F158" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G158" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4941,13 +6300,13 @@
         <v>5.5</v>
       </c>
       <c r="E159" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F159" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G159" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4964,13 +6323,13 @@
         <v>5.5</v>
       </c>
       <c r="E160" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F160" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G160" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4987,13 +6346,13 @@
         <v>5.5</v>
       </c>
       <c r="E161" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F161" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G161" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5010,13 +6369,13 @@
         <v>5.5</v>
       </c>
       <c r="E162" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F162" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G162" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5033,13 +6392,13 @@
         <v>5.5</v>
       </c>
       <c r="E163" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F163" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G163" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5056,13 +6415,13 @@
         <v>5.5</v>
       </c>
       <c r="E164" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F164" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G164" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5079,13 +6438,13 @@
         <v>5.5</v>
       </c>
       <c r="E165" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F165" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G165" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5102,13 +6461,13 @@
         <v>5.5</v>
       </c>
       <c r="E166" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F166" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G166" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5125,13 +6484,13 @@
         <v>5.5</v>
       </c>
       <c r="E167" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F167" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G167" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5148,13 +6507,13 @@
         <v>5.5</v>
       </c>
       <c r="E168" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F168" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G168" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5171,13 +6530,13 @@
         <v>5.5</v>
       </c>
       <c r="E169" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F169" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G169" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5194,13 +6553,13 @@
         <v>5.5</v>
       </c>
       <c r="E170" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F170" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G170" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5217,13 +6576,13 @@
         <v>5.5</v>
       </c>
       <c r="E171" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F171" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G171" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5240,13 +6599,13 @@
         <v>5.5</v>
       </c>
       <c r="E172" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F172" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G172" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5263,13 +6622,13 @@
         <v>5.5</v>
       </c>
       <c r="E173" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F173" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G173" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5286,13 +6645,13 @@
         <v>5.5</v>
       </c>
       <c r="E174" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F174" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G174" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5309,13 +6668,13 @@
         <v>5.5</v>
       </c>
       <c r="E175" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F175" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G175" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5332,13 +6691,13 @@
         <v>5.5</v>
       </c>
       <c r="E176" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F176" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G176" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5355,13 +6714,13 @@
         <v>5.5</v>
       </c>
       <c r="E177" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F177" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G177" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5378,13 +6737,13 @@
         <v>5.5</v>
       </c>
       <c r="E178" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F178" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G178" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5401,13 +6760,13 @@
         <v>5.5</v>
       </c>
       <c r="E179" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F179" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G179" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5424,13 +6783,13 @@
         <v>5.5</v>
       </c>
       <c r="E180" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F180" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G180" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5447,13 +6806,13 @@
         <v>5.5</v>
       </c>
       <c r="E181" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F181" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G181" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5470,13 +6829,13 @@
         <v>5.5</v>
       </c>
       <c r="E182" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F182" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G182" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5493,13 +6852,13 @@
         <v>5.5</v>
       </c>
       <c r="E183" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F183" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G183" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5516,13 +6875,13 @@
         <v>6</v>
       </c>
       <c r="E184" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="F184" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G184" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5539,13 +6898,13 @@
         <v>6</v>
       </c>
       <c r="E185" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F185" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G185" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5562,13 +6921,13 @@
         <v>6</v>
       </c>
       <c r="E186" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F186" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G186" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5585,13 +6944,13 @@
         <v>6</v>
       </c>
       <c r="E187" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F187" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G187" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5608,13 +6967,13 @@
         <v>6</v>
       </c>
       <c r="E188" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F188" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G188" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5631,13 +6990,13 @@
         <v>6</v>
       </c>
       <c r="E189" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F189" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G189" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5654,13 +7013,13 @@
         <v>6</v>
       </c>
       <c r="E190" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F190" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G190" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5677,13 +7036,13 @@
         <v>6</v>
       </c>
       <c r="E191" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F191" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G191" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5700,13 +7059,13 @@
         <v>6</v>
       </c>
       <c r="E192" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F192" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G192" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -5723,13 +7082,13 @@
         <v>6</v>
       </c>
       <c r="E193" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F193" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G193" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -5746,13 +7105,13 @@
         <v>6</v>
       </c>
       <c r="E194" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F194" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G194" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5769,13 +7128,13 @@
         <v>6</v>
       </c>
       <c r="E195" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F195" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G195" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5792,13 +7151,13 @@
         <v>6</v>
       </c>
       <c r="E196" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F196" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G196" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -5815,13 +7174,13 @@
         <v>6</v>
       </c>
       <c r="E197" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F197" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G197" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5838,13 +7197,13 @@
         <v>6</v>
       </c>
       <c r="E198" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F198" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G198" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5861,13 +7220,13 @@
         <v>6</v>
       </c>
       <c r="E199" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F199" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G199" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5884,13 +7243,13 @@
         <v>6</v>
       </c>
       <c r="E200" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F200" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G200" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5907,13 +7266,13 @@
         <v>6</v>
       </c>
       <c r="E201" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F201" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G201" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -5930,13 +7289,13 @@
         <v>6</v>
       </c>
       <c r="E202" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F202" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G202" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5953,13 +7312,13 @@
         <v>6</v>
       </c>
       <c r="E203" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F203" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G203" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5976,13 +7335,13 @@
         <v>6</v>
       </c>
       <c r="E204" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F204" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G204" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5999,13 +7358,13 @@
         <v>6</v>
       </c>
       <c r="E205" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F205" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G205" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6022,13 +7381,13 @@
         <v>6</v>
       </c>
       <c r="E206" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F206" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G206" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6045,13 +7404,13 @@
         <v>6</v>
       </c>
       <c r="E207" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F207" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G207" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6068,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="E208" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F208" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G208" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6091,13 +7450,13 @@
         <v>6</v>
       </c>
       <c r="E209" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F209" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G209" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6114,13 +7473,13 @@
         <v>6</v>
       </c>
       <c r="E210" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F210" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G210" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6137,13 +7496,13 @@
         <v>6</v>
       </c>
       <c r="E211" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F211" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G211" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6160,13 +7519,13 @@
         <v>6</v>
       </c>
       <c r="E212" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F212" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G212" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6183,13 +7542,13 @@
         <v>6</v>
       </c>
       <c r="E213" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F213" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G213" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6206,13 +7565,13 @@
         <v>6</v>
       </c>
       <c r="E214" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F214" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G214" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6229,13 +7588,13 @@
         <v>6</v>
       </c>
       <c r="E215" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F215" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G215" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6252,13 +7611,13 @@
         <v>6</v>
       </c>
       <c r="E216" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F216" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G216" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6275,13 +7634,13 @@
         <v>6</v>
       </c>
       <c r="E217" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F217" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G217" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6298,13 +7657,13 @@
         <v>6</v>
       </c>
       <c r="E218" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F218" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G218" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6321,13 +7680,13 @@
         <v>6</v>
       </c>
       <c r="E219" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F219" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G219" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6344,13 +7703,13 @@
         <v>6</v>
       </c>
       <c r="E220" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F220" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G220" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6367,13 +7726,13 @@
         <v>6</v>
       </c>
       <c r="E221" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F221" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G221" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6390,13 +7749,13 @@
         <v>6</v>
       </c>
       <c r="E222" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F222" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G222" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6413,13 +7772,13 @@
         <v>6</v>
       </c>
       <c r="E223" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F223" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G223" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6436,13 +7795,13 @@
         <v>6</v>
       </c>
       <c r="E224" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F224" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G224" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6459,13 +7818,13 @@
         <v>6</v>
       </c>
       <c r="E225" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F225" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G225" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6482,13 +7841,13 @@
         <v>6</v>
       </c>
       <c r="E226" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F226" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G226" s="4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6505,13 +7864,13 @@
         <v>6</v>
       </c>
       <c r="E227" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F227" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G227" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6528,13 +7887,13 @@
         <v>6</v>
       </c>
       <c r="E228" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F228" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G228" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6551,13 +7910,13 @@
         <v>6</v>
       </c>
       <c r="E229" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F229" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G229" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6574,13 +7933,13 @@
         <v>6</v>
       </c>
       <c r="E230" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F230" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G230" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6597,13 +7956,13 @@
         <v>6</v>
       </c>
       <c r="E231" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F231" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G231" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6620,13 +7979,13 @@
         <v>6</v>
       </c>
       <c r="E232" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F232" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G232" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6643,13 +8002,13 @@
         <v>6</v>
       </c>
       <c r="E233" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F233" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G233" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6666,13 +8025,13 @@
         <v>6</v>
       </c>
       <c r="E234" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F234" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G234" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6689,13 +8048,13 @@
         <v>6</v>
       </c>
       <c r="E235" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F235" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G235" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6712,13 +8071,13 @@
         <v>6</v>
       </c>
       <c r="E236" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F236" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G236" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6735,13 +8094,13 @@
         <v>6</v>
       </c>
       <c r="E237" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F237" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G237" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6758,13 +8117,13 @@
         <v>6</v>
       </c>
       <c r="E238" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F238" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G238" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6781,13 +8140,13 @@
         <v>6</v>
       </c>
       <c r="E239" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F239" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G239" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6804,13 +8163,13 @@
         <v>6</v>
       </c>
       <c r="E240" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F240" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G240" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6827,13 +8186,13 @@
         <v>6</v>
       </c>
       <c r="E241" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F241" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G241" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -6850,13 +8209,13 @@
         <v>6</v>
       </c>
       <c r="E242" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F242" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G242" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6873,13 +8232,13 @@
         <v>6</v>
       </c>
       <c r="E243" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F243" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G243" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -6896,13 +8255,13 @@
         <v>6</v>
       </c>
       <c r="E244" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F244" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G244" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -6919,13 +8278,13 @@
         <v>6</v>
       </c>
       <c r="E245" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F245" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G245" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -6942,13 +8301,13 @@
         <v>6</v>
       </c>
       <c r="E246" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F246" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G246" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -6965,13 +8324,13 @@
         <v>6</v>
       </c>
       <c r="E247" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F247" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G247" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -6988,13 +8347,13 @@
         <v>6</v>
       </c>
       <c r="E248" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F248" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G248" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7011,13 +8370,13 @@
         <v>6</v>
       </c>
       <c r="E249" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F249" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G249" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7034,13 +8393,13 @@
         <v>6</v>
       </c>
       <c r="E250" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F250" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G250" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7057,13 +8416,13 @@
         <v>6</v>
       </c>
       <c r="E251" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F251" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G251" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7080,13 +8439,13 @@
         <v>6</v>
       </c>
       <c r="E252" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F252" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G252" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7103,13 +8462,13 @@
         <v>6</v>
       </c>
       <c r="E253" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F253" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G253" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7126,13 +8485,13 @@
         <v>6</v>
       </c>
       <c r="E254" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F254" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G254" s="4">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7149,13 +8508,13 @@
         <v>6.5</v>
       </c>
       <c r="E255" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F255" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G255" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7172,13 +8531,13 @@
         <v>6.5</v>
       </c>
       <c r="E256" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F256" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G256" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7195,13 +8554,13 @@
         <v>6.5</v>
       </c>
       <c r="E257" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F257" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G257" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7218,13 +8577,13 @@
         <v>6.5</v>
       </c>
       <c r="E258" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F258" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G258" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7241,13 +8600,13 @@
         <v>6.5</v>
       </c>
       <c r="E259" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F259" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G259" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7264,13 +8623,13 @@
         <v>6.5</v>
       </c>
       <c r="E260" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F260" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G260" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7287,13 +8646,13 @@
         <v>6.5</v>
       </c>
       <c r="E261" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F261" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G261" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7310,13 +8669,13 @@
         <v>6.5</v>
       </c>
       <c r="E262" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F262" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G262" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7333,13 +8692,13 @@
         <v>6.5</v>
       </c>
       <c r="E263" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F263" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G263" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7356,13 +8715,13 @@
         <v>6.5</v>
       </c>
       <c r="E264" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F264" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G264" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7379,13 +8738,13 @@
         <v>6.5</v>
       </c>
       <c r="E265" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F265" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G265" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7402,13 +8761,13 @@
         <v>6.5</v>
       </c>
       <c r="E266" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F266" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G266" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7425,13 +8784,13 @@
         <v>6.5</v>
       </c>
       <c r="E267" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F267" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G267" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7448,13 +8807,13 @@
         <v>6.5</v>
       </c>
       <c r="E268" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F268" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G268" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7471,13 +8830,13 @@
         <v>6.5</v>
       </c>
       <c r="E269" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F269" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G269" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7494,13 +8853,13 @@
         <v>6.5</v>
       </c>
       <c r="E270" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F270" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G270" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7517,13 +8876,13 @@
         <v>6.5</v>
       </c>
       <c r="E271" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F271" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G271" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7540,13 +8899,13 @@
         <v>6.5</v>
       </c>
       <c r="E272" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F272" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G272" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7563,13 +8922,13 @@
         <v>6.5</v>
       </c>
       <c r="E273" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F273" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G273" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7586,13 +8945,13 @@
         <v>6.5</v>
       </c>
       <c r="E274" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F274" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G274" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -7609,13 +8968,13 @@
         <v>6.5</v>
       </c>
       <c r="E275" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F275" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G275" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -7632,13 +8991,13 @@
         <v>6.5</v>
       </c>
       <c r="E276" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F276" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G276" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -7655,13 +9014,13 @@
         <v>6.5</v>
       </c>
       <c r="E277" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F277" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G277" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -7678,13 +9037,13 @@
         <v>6.5</v>
       </c>
       <c r="E278" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F278" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G278" s="4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -7701,13 +9060,13 @@
         <v>7</v>
       </c>
       <c r="E279" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F279" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G279" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -7724,13 +9083,13 @@
         <v>7</v>
       </c>
       <c r="E280" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F280" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G280" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -7747,13 +9106,13 @@
         <v>7</v>
       </c>
       <c r="E281" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F281" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G281" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -7770,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="E282" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F282" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G282" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -7793,13 +9152,13 @@
         <v>7</v>
       </c>
       <c r="E283" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F283" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G283" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -7816,13 +9175,13 @@
         <v>7</v>
       </c>
       <c r="E284" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F284" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G284" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -7839,13 +9198,13 @@
         <v>7</v>
       </c>
       <c r="E285" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F285" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G285" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -7862,13 +9221,13 @@
         <v>7</v>
       </c>
       <c r="E286" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F286" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G286" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -7888,10 +9247,10 @@
         <v>7</v>
       </c>
       <c r="F287" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G287" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -7911,10 +9270,10 @@
         <v>7</v>
       </c>
       <c r="F288" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G288" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -7942,6 +9301,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8683,27 +10043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="52e7cb48-9dbe-449d-a08d-73f78dde171e" xsi:nil="true"/>
-    <image xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F8D0211E8CD2D449FCA0D3312F2396F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="08c5dcd670bf842280e7f14634592acd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9f429f1-56db-4bfe-afaf-d667290c795e" xmlns:ns3="52e7cb48-9dbe-449d-a08d-73f78dde171e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="363a14a119051cfb09d88d9e3878f4dd" ns2:_="" ns3:_="">
     <xsd:import namespace="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
@@ -8970,10 +10309,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="52e7cb48-9dbe-449d-a08d-73f78dde171e" xsi:nil="true"/>
+    <image xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD599B28-20AA-4EE9-A1C1-AF5915C0B758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
+    <ds:schemaRef ds:uri="52e7cb48-9dbe-449d-a08d-73f78dde171e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8990,20 +10361,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD599B28-20AA-4EE9-A1C1-AF5915C0B758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
-    <ds:schemaRef ds:uri="52e7cb48-9dbe-449d-a08d-73f78dde171e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Social charging model/social_psychological_variables.xlsx
+++ b/Social charging model/social_psychological_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC05B20-CD6E-41DE-A6E2-AFA15E62931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB637997-E4D8-451E-B8A5-E676A367738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation_matrix" sheetId="8" r:id="rId1"/>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0717C7-A6B8-4B04-BCE8-661098347A82}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8993,7 +8993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0920AE6-4A52-413B-869A-89D68F8AA8D9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
@@ -9093,6 +9093,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="52e7cb48-9dbe-449d-a08d-73f78dde171e" xsi:nil="true"/>
+    <image xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F8D0211E8CD2D449FCA0D3312F2396F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="08c5dcd670bf842280e7f14634592acd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9f429f1-56db-4bfe-afaf-d667290c795e" xmlns:ns3="52e7cb48-9dbe-449d-a08d-73f78dde171e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="363a14a119051cfb09d88d9e3878f4dd" ns2:_="" ns3:_="">
     <xsd:import namespace="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
@@ -9359,28 +9380,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="52e7cb48-9dbe-449d-a08d-73f78dde171e" xsi:nil="true"/>
-    <image xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f429f1-56db-4bfe-afaf-d667290c795e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54EB9CB9-2607-45A4-BDA1-92F5872EA69C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52e7cb48-9dbe-449d-a08d-73f78dde171e"/>
+    <ds:schemaRef ds:uri="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD599B28-20AA-4EE9-A1C1-AF5915C0B758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9397,23 +9416,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54EB9CB9-2607-45A4-BDA1-92F5872EA69C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52e7cb48-9dbe-449d-a08d-73f78dde171e"/>
-    <ds:schemaRef ds:uri="a9f429f1-56db-4bfe-afaf-d667290c795e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D9FB8B9-AEEB-430D-B1BC-E5436DEF3FF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Social charging model/social_psychological_variables.xlsx
+++ b/Social charging model/social_psychological_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07388631-2488-4A2C-A7D4-E3EE0A002E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC716C-D553-477B-9F79-0839AB3A94F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{318A7960-C35B-459C-A3EA-0553FC373801}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>norms</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t>trust</t>
+  </si>
+  <si>
+    <t>val true</t>
+  </si>
+  <si>
+    <t>val false</t>
+  </si>
+  <si>
+    <t>sd from mean</t>
+  </si>
+  <si>
+    <t>Max b1</t>
+  </si>
+  <si>
+    <t>min b1</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min_sd_dev</t>
+  </si>
+  <si>
+    <t>max_sd_dev</t>
+  </si>
+  <si>
+    <t>min_val</t>
+  </si>
+  <si>
+    <t>max_val</t>
   </si>
 </sst>
 </file>
@@ -2324,15 +2357,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58A2F2-7A8C-4742-9BDA-05C4C9312E27}">
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>-2.7694999999999999</v>
       </c>
@@ -2396,8 +2429,15 @@
         <f>AVERAGE(E:E)</f>
         <v>2.0833333539015273E-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <f>MAX(E:E)</f>
+        <v>1.3669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>-2.7694999999999999</v>
       </c>
@@ -2419,8 +2459,15 @@
       <c r="G3" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <f>MIN(E:E)</f>
+        <v>-1.63056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2442,8 +2489,14 @@
       <c r="G4" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2465,8 +2518,18 @@
       <c r="G5" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>I4+J4*0.834</f>
+        <v>0.28166999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2488,8 +2551,20 @@
       <c r="G6" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>I4+J4*G271</f>
+        <v>1.0008312000000001</v>
+      </c>
+      <c r="K6">
+        <f>G272</f>
+        <v>3.6542400000000002</v>
+      </c>
+      <c r="L6">
+        <f>G6</f>
+        <v>-0.2727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2511,8 +2586,23 @@
       <c r="G7" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f>G7+(I4+15*J4)</f>
+        <v>3.6213000000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <f>(K6-I4)/J4</f>
+        <v>14.059764705882353</v>
+      </c>
+      <c r="L7">
+        <f>(I4-L6)/J4</f>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2534,8 +2624,12 @@
       <c r="G8" s="6">
         <v>-0.2727</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>I4+J4*I7</f>
+        <v>0.99243150000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2558,7 +2652,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>-2.4198300000000001</v>
       </c>
@@ -2581,7 +2675,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -2604,7 +2698,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -2627,7 +2721,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -2650,7 +2744,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -2673,7 +2767,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -2696,7 +2790,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>-2.0701499999999999</v>
       </c>
@@ -9006,15 +9100,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0920AE6-4A52-413B-869A-89D68F8AA8D9}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -9024,8 +9118,26 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9035,8 +9147,32 @@
       <c r="C2" s="3">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>MIN(frequency_list!A:A)</f>
+        <v>-2.7694999999999999</v>
+      </c>
+      <c r="E2">
+        <f>MAX(frequency_list!A:A)</f>
+        <v>1.4266399999999999</v>
+      </c>
+      <c r="F2">
+        <f>(D2-$B2)/$C2</f>
+        <v>-5.4052447552447553</v>
+      </c>
+      <c r="G2">
+        <f>(E2-$B2)/$C2</f>
+        <v>-2.4708811188811191</v>
+      </c>
+      <c r="H2">
+        <f>$B2+D2*$C2</f>
+        <v>0.99961500000000036</v>
+      </c>
+      <c r="I2">
+        <f>$B2+E2*$C2</f>
+        <v>7.0000951999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -9046,11 +9182,32 @@
       <c r="C3" s="3">
         <v>1.2889999999999999</v>
       </c>
+      <c r="D3">
+        <f>MIN(frequency_list!D:D)</f>
+        <v>-1.61303</v>
+      </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>MAX(frequency_list!D:D)</f>
+        <v>3.0402499999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">(D3-$B3)/$C3</f>
+        <v>-3.6408301008533752</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="1">(E3-$B3)/$C3</f>
+        <v>-3.0837858805275543E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="2">$B3+D3*$C3</f>
+        <v>1.0008043300000002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">$B3+E3*$C3</f>
+        <v>6.9988822499999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9060,8 +9217,32 @@
       <c r="C4" s="3">
         <v>1.194</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>MIN(frequency_list!B:B)</f>
+        <v>-3.1527400000000001</v>
+      </c>
+      <c r="E4">
+        <f>MAX(frequency_list!B:B)</f>
+        <v>1.8707100000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-6.6354606365159121</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-2.4282160804020099</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.0056284399999997</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>7.0036277399999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9071,8 +9252,32 @@
       <c r="C5" s="3">
         <v>1.1539999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>MIN(frequency_list!C:C)</f>
+        <v>-3.6231</v>
+      </c>
+      <c r="E5">
+        <f>MAX(frequency_list!C:C)</f>
+        <v>1.57683</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-7.6283362218370891</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-3.1223310225303291</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.99894260000000035</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>6.99966182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9082,8 +9287,32 @@
       <c r="C6" s="3">
         <v>2.0019999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>MIN(frequency_list!E:E)</f>
+        <v>-1.63056</v>
+      </c>
+      <c r="E6">
+        <f>MAX(frequency_list!A:A)</f>
+        <v>1.4266399999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-2.9423376623376627</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-1.4152647352647354</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.99561888000000032</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>7.1161332799999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9093,8 +9322,32 @@
       <c r="C7" s="7">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>MIN(frequency_list!F:F)</f>
+        <v>-0.2727</v>
+      </c>
+      <c r="E7">
+        <f>MAX(frequency_list!F:F)</f>
+        <v>3.6542400000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-1.34</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>14.059764705882353</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-5.3849999999999731E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.0008312000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9103,6 +9356,30 @@
       </c>
       <c r="C8" s="7">
         <v>0.255</v>
+      </c>
+      <c r="D8">
+        <f>MIN(frequency_list!G:G)</f>
+        <v>-0.2727</v>
+      </c>
+      <c r="E8">
+        <f>MAX(frequency_list!G:G)</f>
+        <v>3.6542400000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.34</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>14.059764705882353</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-5.3849999999999731E-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.0008312000000001</v>
       </c>
     </row>
   </sheetData>
